--- a/data/trans_camb/P12_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,6; -0,11</t>
+          <t>-7,45; -0,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 0,29</t>
+          <t>-7,31; 0,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 0,37</t>
+          <t>-8,01; 0,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,91</t>
+          <t>1,53; 8,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 2,76</t>
+          <t>-4,49; 2,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 3,54</t>
+          <t>-2,9; 4,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 4,16</t>
+          <t>-0,99; 4,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,86</t>
+          <t>-4,42; 0,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,58</t>
+          <t>-3,85; 1,27</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,73; -0,1</t>
+          <t>-30,47; -1,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 0,99</t>
+          <t>-30,22; 2,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 1,95</t>
+          <t>-33,54; 0,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 36,49</t>
+          <t>5,36; 34,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 11,12</t>
+          <t>-16,36; 11,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 14,63</t>
+          <t>-10,69; 16,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 17,57</t>
+          <t>-3,9; 17,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 3,64</t>
+          <t>-17,5; 3,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 6,83</t>
+          <t>-14,8; 5,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,11</t>
+          <t>-1,52; 3,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,75; -2,49</t>
+          <t>-6,66; -2,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 0,77</t>
+          <t>-4,12; 0,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,62</t>
+          <t>0,73; 6,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -4,32</t>
+          <t>-9,71; -4,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 14,32</t>
+          <t>-3,44; 17,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,12</t>
+          <t>0,1; 3,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,26; -3,98</t>
+          <t>-7,43; -4,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 7,76</t>
+          <t>-2,84; 6,88</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 24,34</t>
+          <t>-9,9; 24,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,61; -19,18</t>
+          <t>-43,21; -18,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 5,83</t>
+          <t>-26,57; 4,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 35,0</t>
+          <t>3,69; 36,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,58; -23,12</t>
+          <t>-44,59; -24,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 70,98</t>
+          <t>-16,62; 98,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 26,2</t>
+          <t>0,48; 23,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,16; -24,7</t>
+          <t>-41,0; -25,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 47,02</t>
+          <t>-16,33; 42,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 3,04</t>
+          <t>-5,89; 3,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -1,81</t>
+          <t>-9,56; -1,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 2,24</t>
+          <t>-5,29; 2,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 2,86</t>
+          <t>-7,89; 2,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -0,89</t>
+          <t>-10,11; -0,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 2,56</t>
+          <t>-6,14; 2,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 1,38</t>
+          <t>-5,67; 1,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -2,25</t>
+          <t>-8,24; -2,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 1,51</t>
+          <t>-4,22; 1,69</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,56; 22,83</t>
+          <t>-36,77; 25,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,62; -13,34</t>
+          <t>-55,18; -9,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,08; 18,24</t>
+          <t>-31,04; 21,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,85; 17,51</t>
+          <t>-36,71; 14,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,42; -4,76</t>
+          <t>-46,67; -1,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,62; 16,6</t>
+          <t>-27,67; 14,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 9,66</t>
+          <t>-31,27; 9,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,81; -14,56</t>
+          <t>-44,75; -14,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 10,24</t>
+          <t>-22,52; 11,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,64</t>
+          <t>-3,03; 0,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -3,56</t>
+          <t>-6,9; -3,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; -1,44</t>
+          <t>-5,13; -1,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,57</t>
+          <t>1,67; 5,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,6; -3,68</t>
+          <t>-7,52; -3,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 7,54</t>
+          <t>-3,39; 7,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,56</t>
+          <t>-0,22; 2,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,72; -4,18</t>
+          <t>-6,87; -4,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 2,69</t>
+          <t>-3,56; 2,6</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 4,0</t>
+          <t>-17,18; 5,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,92; -22,42</t>
+          <t>-38,92; -22,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,43; -9,06</t>
+          <t>-29,15; -9,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,02; 26,41</t>
+          <t>7,2; 27,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,48; -17,01</t>
+          <t>-31,92; -17,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 33,7</t>
+          <t>-14,96; 35,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 13,61</t>
+          <t>-1,18; 13,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,17; -21,98</t>
+          <t>-33,8; -22,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 14,13</t>
+          <t>-17,71; 13,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,45; -0,34</t>
+          <t>-7,58; -0,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 0,63</t>
+          <t>-7,63; 0,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 0,08</t>
+          <t>-8,26; -0,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 8,56</t>
+          <t>2,03; 9,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 2,88</t>
+          <t>-4,48; 2,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 4,08</t>
+          <t>-3,25; 3,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,09</t>
+          <t>-0,83; 4,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,8</t>
+          <t>-4,7; 0,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,27</t>
+          <t>-3,89; 1,43</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,47; -1,91</t>
+          <t>-30,67; -1,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,22; 2,88</t>
+          <t>-31,66; 0,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,54; 0,32</t>
+          <t>-34,05; 0,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,36; 34,69</t>
+          <t>7,44; 38,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 11,55</t>
+          <t>-16,23; 10,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 16,8</t>
+          <t>-11,53; 15,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 17,29</t>
+          <t>-3,28; 18,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 3,44</t>
+          <t>-18,27; 3,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 5,4</t>
+          <t>-15,03; 6,3</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,13</t>
+          <t>-1,39; 3,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,66; -2,42</t>
+          <t>-6,82; -2,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 0,63</t>
+          <t>-4,25; 0,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,63</t>
+          <t>0,72; 6,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,71; -4,59</t>
+          <t>-9,46; -4,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 17,18</t>
+          <t>-3,51; 16,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,91</t>
+          <t>0,12; 4,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,43; -4,06</t>
+          <t>-7,49; -4,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 6,88</t>
+          <t>-2,77; 6,68</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 24,82</t>
+          <t>-9,06; 25,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,21; -18,86</t>
+          <t>-44,14; -19,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,57; 4,6</t>
+          <t>-26,59; 5,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 36,54</t>
+          <t>3,31; 33,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,59; -24,52</t>
+          <t>-43,61; -23,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 98,85</t>
+          <t>-17,24; 80,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 23,93</t>
+          <t>0,56; 25,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,0; -25,27</t>
+          <t>-41,05; -25,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 42,48</t>
+          <t>-15,94; 40,45</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 3,31</t>
+          <t>-5,83; 3,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,56; -1,55</t>
+          <t>-10,1; -1,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 2,55</t>
+          <t>-5,3; 2,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 2,33</t>
+          <t>-8,06; 1,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,11; -0,49</t>
+          <t>-10,53; -0,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 2,4</t>
+          <t>-6,26; 2,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 1,47</t>
+          <t>-5,06; 1,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,24; -2,15</t>
+          <t>-8,7; -2,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,69</t>
+          <t>-4,29; 1,91</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,77; 25,54</t>
+          <t>-35,8; 25,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,18; -9,32</t>
+          <t>-57,72; -12,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,04; 21,41</t>
+          <t>-31,34; 23,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 14,51</t>
+          <t>-36,69; 9,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,67; -1,88</t>
+          <t>-46,99; -4,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,67; 14,68</t>
+          <t>-27,74; 14,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 9,5</t>
+          <t>-28,04; 11,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,75; -14,3</t>
+          <t>-46,58; -15,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 11,5</t>
+          <t>-22,43; 12,85</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,81</t>
+          <t>-3,01; 0,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,9; -3,66</t>
+          <t>-7,07; -3,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,13; -1,52</t>
+          <t>-5,26; -1,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 5,91</t>
+          <t>1,44; 5,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,52; -3,96</t>
+          <t>-7,49; -3,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 7,97</t>
+          <t>-3,47; 7,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,5</t>
+          <t>-0,23; 2,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,87; -4,27</t>
+          <t>-6,88; -4,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 2,6</t>
+          <t>-3,56; 3,14</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 5,04</t>
+          <t>-16,9; 3,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,92; -22,61</t>
+          <t>-39,38; -22,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,15; -9,19</t>
+          <t>-29,18; -9,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,2; 27,64</t>
+          <t>6,27; 26,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,92; -17,67</t>
+          <t>-32,14; -16,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 35,8</t>
+          <t>-15,1; 34,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 13,05</t>
+          <t>-1,1; 13,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,8; -22,17</t>
+          <t>-33,53; -22,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 13,54</t>
+          <t>-17,81; 17,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces</t>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,58; -0,45</t>
+          <t>-7,6; -0,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 0,14</t>
+          <t>-6,95; 0,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,26; -0,06</t>
+          <t>-8,07; 0,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 9,35</t>
+          <t>1,88; 8,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 2,7</t>
+          <t>-4,42; 2,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 3,74</t>
+          <t>-3,2; 3,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 4,29</t>
+          <t>-0,85; 4,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 0,75</t>
+          <t>-4,64; 0,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 1,43</t>
+          <t>-3,75; 1,58</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,67; -1,62</t>
+          <t>-30,73; -0,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 0,76</t>
+          <t>-29,22; 0,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 0,05</t>
+          <t>-33,16; 1,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 38,52</t>
+          <t>6,89; 36,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 10,89</t>
+          <t>-16,07; 11,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 15,27</t>
+          <t>-11,38; 14,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 18,4</t>
+          <t>-3,43; 17,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 3,31</t>
+          <t>-18,05; 3,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 6,3</t>
+          <t>-14,77; 6,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 3,24</t>
+          <t>-1,78; 3,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -2,56</t>
+          <t>-6,75; -2,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 0,58</t>
+          <t>-4,0; 0,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,47</t>
+          <t>1,01; 6,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,46; -4,3</t>
+          <t>-9,51; -4,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 16,14</t>
+          <t>-3,76; 14,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 4,05</t>
+          <t>0,35; 4,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,49; -4,09</t>
+          <t>-7,26; -3,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 6,68</t>
+          <t>-2,8; 7,76</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 25,09</t>
+          <t>-11,43; 24,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,14; -19,07</t>
+          <t>-44,61; -19,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 5,23</t>
+          <t>-26,18; 5,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 33,98</t>
+          <t>4,8; 35,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,61; -23,03</t>
+          <t>-43,58; -23,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 80,22</t>
+          <t>-17,9; 70,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 25,09</t>
+          <t>2,3; 26,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,05; -25,51</t>
+          <t>-40,16; -24,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 40,45</t>
+          <t>-16,16; 47,02</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 3,23</t>
+          <t>-6,12; 3,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,1; -1,61</t>
+          <t>-9,51; -1,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 2,85</t>
+          <t>-5,58; 2,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 1,5</t>
+          <t>-7,53; 2,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,53; -0,74</t>
+          <t>-10,32; -0,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 2,37</t>
+          <t>-6,27; 2,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 1,74</t>
+          <t>-5,71; 1,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,7; -2,48</t>
+          <t>-8,41; -2,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 1,91</t>
+          <t>-4,56; 1,51</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 25,82</t>
+          <t>-36,56; 22,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,72; -12,29</t>
+          <t>-56,62; -13,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 23,56</t>
+          <t>-34,08; 18,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,69; 9,1</t>
+          <t>-34,85; 17,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,99; -4,19</t>
+          <t>-47,42; -4,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 14,01</t>
+          <t>-27,62; 16,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,04; 11,23</t>
+          <t>-30,06; 9,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,58; -15,97</t>
+          <t>-45,81; -14,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 12,85</t>
+          <t>-23,82; 10,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 0,54</t>
+          <t>-2,91; 0,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,07; -3,57</t>
+          <t>-6,97; -3,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,26; -1,46</t>
+          <t>-5,06; -1,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,63</t>
+          <t>1,39; 5,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,49; -3,57</t>
+          <t>-7,6; -3,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 7,67</t>
+          <t>-3,33; 7,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,59</t>
+          <t>-0,14; 2,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,88; -4,21</t>
+          <t>-6,72; -4,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 3,14</t>
+          <t>-3,62; 2,69</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 3,35</t>
+          <t>-16,26; 4,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,38; -22,17</t>
+          <t>-38,92; -22,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,18; -9,24</t>
+          <t>-28,43; -9,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,27; 26,67</t>
+          <t>6,02; 26,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,14; -16,6</t>
+          <t>-32,48; -17,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 34,89</t>
+          <t>-14,69; 33,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 13,54</t>
+          <t>-0,7; 13,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,53; -22,18</t>
+          <t>-33,17; -21,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 17,1</t>
+          <t>-17,89; 14,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-1,75</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 0,37</t>
+          <t>-8,37; -0,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 3,54</t>
+          <t>-3,48; 3,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,58</t>
+          <t>-4,24; 1,05</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,74%</t>
+          <t>-20,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-5,25%</t>
+          <t>-7,13%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 1,95</t>
+          <t>-35,08; -0,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 14,63</t>
+          <t>-12,52; 13,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 6,83</t>
+          <t>-16,43; 4,66</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 0,77</t>
+          <t>-6,72; -0,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 14,32</t>
+          <t>-4,49; 24,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 7,76</t>
+          <t>-4,21; 13,83</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,83%</t>
+          <t>-20,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 5,83</t>
+          <t>-45,62; -3,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 70,98</t>
+          <t>-21,44; 122,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 47,02</t>
+          <t>-24,24; 83,63</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,54</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 2,24</t>
+          <t>-5,86; 2,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 2,56</t>
+          <t>-6,4; 2,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 1,51</t>
+          <t>-4,76; 1,42</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-9,87%</t>
+          <t>-11,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-8,86%</t>
+          <t>-9,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-8,05%</t>
+          <t>-9,17%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,08; 18,24</t>
+          <t>-35,75; 17,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,62; 16,6</t>
+          <t>-28,2; 15,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 10,24</t>
+          <t>-25,0; 9,18</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-1,51</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; -1,44</t>
+          <t>-7,64; -2,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 7,54</t>
+          <t>-4,07; 15,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 2,69</t>
+          <t>-4,67; 6,32</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-19,64%</t>
+          <t>-25,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-8,76%</t>
+          <t>-7,67%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,43; -9,06</t>
+          <t>-43,01; -15,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 33,7</t>
+          <t>-17,8; 68,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 14,13</t>
+          <t>-23,38; 32,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,6; -0,11</t>
+          <t>-7,33; -0,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 0,29</t>
+          <t>-7,53; 0,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,37; -0,13</t>
+          <t>-8,49; -0,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,91</t>
+          <t>1,86; 9,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 2,76</t>
+          <t>-4,66; 2,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 3,28</t>
+          <t>-3,4; 3,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 4,16</t>
+          <t>-1,11; 4,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,86</t>
+          <t>-4,66; 0,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 1,05</t>
+          <t>-4,39; 1,08</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,73; -0,1</t>
+          <t>-30,01; -0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 0,99</t>
+          <t>-31,38; 1,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,08; -0,82</t>
+          <t>-34,96; -1,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 36,49</t>
+          <t>6,39; 37,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 11,12</t>
+          <t>-16,75; 11,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 13,55</t>
+          <t>-11,86; 13,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 17,57</t>
+          <t>-4,08; 18,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 3,64</t>
+          <t>-18,13; 3,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 4,66</t>
+          <t>-17,16; 4,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,11</t>
+          <t>-1,52; 3,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,75; -2,49</t>
+          <t>-6,79; -2,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; -0,31</t>
+          <t>-6,9; -0,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,62</t>
+          <t>0,64; 6,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -4,32</t>
+          <t>-9,43; -4,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 24,24</t>
+          <t>-4,51; 26,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,12</t>
+          <t>0,26; 4,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,26; -3,98</t>
+          <t>-7,62; -4,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 13,83</t>
+          <t>-3,85; 13,88</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 24,34</t>
+          <t>-9,99; 24,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,61; -19,18</t>
+          <t>-44,17; -17,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,62; -3,63</t>
+          <t>-44,98; -4,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 35,0</t>
+          <t>2,83; 34,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,58; -23,12</t>
+          <t>-43,66; -23,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 122,09</t>
+          <t>-21,71; 133,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 26,2</t>
+          <t>1,53; 25,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,16; -24,7</t>
+          <t>-41,94; -25,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,24; 83,63</t>
+          <t>-22,14; 85,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 3,04</t>
+          <t>-6,12; 3,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -1,81</t>
+          <t>-9,8; -1,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 2,09</t>
+          <t>-5,67; 2,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 2,86</t>
+          <t>-7,56; 2,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -0,89</t>
+          <t>-10,03; -0,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 2,32</t>
+          <t>-6,45; 2,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 1,38</t>
+          <t>-5,69; 1,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -2,25</t>
+          <t>-8,92; -2,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 1,42</t>
+          <t>-4,98; 1,28</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,56; 22,83</t>
+          <t>-35,68; 26,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,62; -13,34</t>
+          <t>-56,87; -8,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,75; 17,17</t>
+          <t>-33,68; 21,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,85; 17,51</t>
+          <t>-35,64; 16,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,42; -4,76</t>
+          <t>-45,42; -4,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 15,41</t>
+          <t>-29,07; 16,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 9,66</t>
+          <t>-31,39; 8,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,81; -14,56</t>
+          <t>-47,21; -15,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 9,18</t>
+          <t>-25,82; 8,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,64</t>
+          <t>-3,16; 0,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -3,56</t>
+          <t>-6,94; -3,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,64; -2,49</t>
+          <t>-7,01; -2,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,57</t>
+          <t>1,23; 5,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,6; -3,68</t>
+          <t>-7,71; -3,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 15,48</t>
+          <t>-4,28; 17,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,56</t>
+          <t>-0,18; 2,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,72; -4,18</t>
+          <t>-6,75; -4,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 6,32</t>
+          <t>-4,36; 8,37</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 4,0</t>
+          <t>-17,55; 4,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,92; -22,42</t>
+          <t>-38,87; -21,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,01; -15,48</t>
+          <t>-41,61; -14,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,02; 26,41</t>
+          <t>5,21; 26,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,48; -17,01</t>
+          <t>-32,61; -17,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 68,8</t>
+          <t>-18,72; 79,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 13,61</t>
+          <t>-0,8; 13,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,17; -21,98</t>
+          <t>-33,1; -21,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 32,98</t>
+          <t>-22,0; 45,86</t>
         </is>
       </c>
     </row>
